--- a/biology/Origine et évolution du vivant/Archaeplastida_(classification_phylogénétique)/Archaeplastida_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Archaeplastida_(classification_phylogénétique)/Archaeplastida_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Archaeplastida_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Archaeplastida (Plantae, Archéplastides), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Archaeplastida_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -683,7 +697,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Archaeplastida_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -701,7 +715,9 @@
           <t>Débat scientifique relatif à la phylogénie des Archaeplastida</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'arbre ci-dessus, les principales questions qui font débat sont :
 la monophylie des Archéplastides elles-mêmes, question liée à celle des endosymbioses parmi les « végétaux » : la notion d'archéplastide, comme le nom l'indique, suppose une endosymbiose primaire à la base de tout le groupe, la présence de chloroplastes dans la « lignée brune » (Straménopiles) et autres « algues » protistes s'expliquant par des endosymbioses secondaires plus récentes dans les lignées considérées – ce qui est aujourd'hui contesté ;
@@ -713,8 +729,43 @@
 la place des Marattiales au sein des Monilophytes ; groupe-frère des Équisétophytes ou des Filicophytes ?
 la monophylie des Gymnospermes actuelles, et la parenté des Angiospermes avec les taxons éteints.
 Concernant les Embryophytes, l'arbre présenté ici suit assez fidèlement la synthèse des derniers travaux, présentée par l'Angiosperm Phylogeny Website.
-Classification selon Cavalier-Smith 1998
-Cette classification n'est pas à proprement parler phylogénétique. Basée sur les nouvelles phylogénies, elle maintient néanmoins des taxons paraphylétiques, notamment à la base des lignées évolutives, par commodité. Elle maintient également les niveaux traditionnels de classification (règnes, phyla, classes, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Archaeplastida_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Débat scientifique relatif à la phylogénie des Archaeplastida</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification selon Cavalier-Smith 1998</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classification n'est pas à proprement parler phylogénétique. Basée sur les nouvelles phylogénies, elle maintient néanmoins des taxons paraphylétiques, notamment à la base des lignées évolutives, par commodité. Elle maintient également les niveaux traditionnels de classification (règnes, phyla, classes, etc.).
 Classification selon Cavalier-Smith 1998
 ▲
 └─o règne des Plantae
@@ -769,8 +820,43 @@
         └─o sous-embranchement des Spermatophytina
           ├─o infra-embranchement des Gymnospermae
           └─o infra-embranchement des Angiospermae
-Arbre phylogénétique simplifié selon Nozaki et al. 2003
-L'analyse portait essentiellement sur les organismes à plastes, les Discicristés, Straménopiles et Alvéolés se retrouvant à l'intérieur d'un vaste clade rendant les Archaeplastida paraphylétiques. Les Rhodophytes seraient la lignée la plus proche de la base des Bicontes (sous réserve de la place indéterminée des organismes sans mitochondrie). La place des Rhizaires n'est pas évoquée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Archaeplastida_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Débat scientifique relatif à la phylogénie des Archaeplastida</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arbre phylogénétique simplifié selon Nozaki et al. 2003</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse portait essentiellement sur les organismes à plastes, les Discicristés, Straménopiles et Alvéolés se retrouvant à l'intérieur d'un vaste clade rendant les Archaeplastida paraphylétiques. Les Rhodophytes seraient la lignée la plus proche de la base des Bicontes (sous réserve de la place indéterminée des organismes sans mitochondrie). La place des Rhizaires n'est pas évoquée.
 Arbre phylogénétique simplifié selon Nozaki et al. 2003
 └─o Plantae
   ├─o Rhodophyta
@@ -789,8 +875,43 @@
           └─o Alveolata
             ├─o Apicomplexa
             └─o Ciliophora
-Classification proposée par Adl et al. 2005
-Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Archaeplastida.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Archaeplastida_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Débat scientifique relatif à la phylogénie des Archaeplastida</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classification proposée par Adl et al. 2005</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Archaeplastida.
 Classification proposée par Adl et al. 2005
 ▲
 └─o Archaeplastida
@@ -812,35 +933,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Archaeplastida_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>En savoir plus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
-Sources bibliographiques
-Cheong Xin Chan, Eun Chan Yang, Titas Banerjee, Hwan Su Yoon, Patrick T. Martone, José M. Estevez et Debashish Bhattacharya : « Red and Green Algal Monophyly and Extensive Gene Sharing Found in a Rich Repertoire of Red Algal Genes », Current Biology, vol. 21, 2011, pp. 328-333
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Archaeplastida_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheong Xin Chan, Eun Chan Yang, Titas Banerjee, Hwan Su Yoon, Patrick T. Martone, José M. Estevez et Debashish Bhattacharya : « Red and Green Algal Monophyly and Extensive Gene Sharing Found in a Rich Repertoire of Red Algal Genes », Current Biology, vol. 21, 2011, pp. 328-333
 Hwan Su Yoon, Giuseppe C. Zuccarello et Debashish Bhattacharya : « Evolutionary History and Taxonomy of Red Algae », in J. Seckbach et D. Chapman éd. : « Red Algae in the Genomic Age », Cellular Origin, Life in Extreme Habitats and Astrobiology, vol. 13, Springer, 2010, pp. 25-42 
 Philip D. Cantino, James A. Doyle, Sean W. Graham, Walter S. Judd, Richard G. Olmstead, Douglas E. Soltis, Pamela S. Soltis et Michael J. Donoghue : « Towards a phylogenetic nomenclature of Tracheophyta », Taxon, vol. 56, n°3, supplément électronique, pp. 1-44, 2007
 Jose E.B. de la Torre, Mary G. Egan, Manpreet S. Katari, Eric D. Brenner, Dennis W. Stevenson, Gloria M. Coruzzi et Rob DeSalle : « ESTimating plant phylogeny: lessons from partitioning », BMC Evolutionary Biology, 6:48, 2006
@@ -849,11 +1007,79 @@
 Peter R. Crane, Patrick Herendeen et Else Marie Friis : « Fossils and plant phylogeny », American Journal of Botany 91 (10), 2004, pp. 1683–1699
 Hwan Su Yoon, Jeremiah D. Hackett, Claudia Ciniglia, Gabriele Pinto et Debashish Bhattacharya (2004) « A Molecular Timeline for the Origin of Photosynthetic Eukaryotes », Mol. Biol. Evol. 21 (5) pp. 809-818
 Hisayoshi Nozaki et alii (2003) « The phylogenetic position of Red Algae revealed by multiple nuclear genes from mitochondria-containing eukaryotes and an alternative hypothesis on the origin of plastids », J. Mol. Evol. 56 pp. 485-497 
-Thomas Cavalier-Smith (1998) « A revised six-kingdom system of life », Biological reviews 73, pp. 203-266 
-Autres sources bibliographiques
-Guillaume Lecointre et Hervé Le Guyader (2001, 2006³) Classification phylogénétique du vivant, Belin  (ISBN 2-7011-4273-3)
-Sources internet
-Angiosperm Phylogeny Website 
+Thomas Cavalier-Smith (1998) « A revised six-kingdom system of life », Biological reviews 73, pp. 203-266 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Archaeplastida_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres sources bibliographiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Guillaume Lecointre et Hervé Le Guyader (2001, 2006³) Classification phylogénétique du vivant, Belin  (ISBN 2-7011-4273-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Archaeplastida_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeplastida_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Angiosperm Phylogeny Website 
 « Mikko's Phylogeny Archive »
 The Taxonomicon
 « Palaeos.org »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)
